--- a/src/test/resources/Ot-addActividad_multiple_rules_skip_rule2.xlsx
+++ b/src/test/resources/Ot-addActividad_multiple_rules_skip_rule2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ar00062451\Documents\drools-poc\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD9196D-FDA5-45F9-A18F-548D0D8D4CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6396926C-B1A8-4EE0-87F1-0760F91AA5CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4365" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividad" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,6 @@
     <t>Entrega de Otros</t>
   </si>
   <si>
-    <t>producto</t>
-  </si>
-  <si>
     <t>entidad</t>
   </si>
   <si>
@@ -157,13 +154,16 @@
     <t>$ot.agregar_actividades(Arrays.asList($param));</t>
   </si>
   <si>
-    <t>com.example.cargaUnificada.resource.rule.model.Ot, com.example.cargaUnificada.resource.rule.model.Actividad, java.util.Arrays</t>
-  </si>
-  <si>
     <t>"SolicitudMotivoSinRemesa"</t>
   </si>
   <si>
     <t>"Coleta","CONTAR-2"</t>
+  </si>
+  <si>
+    <t>com.example.cargaUnificada.resource.rule.model.Ot, com.example.cargaUnificada.resource.rule.model.Actividad, com.example.cargaUnificada.resource.rule.model.ServicioRuta, java.util.Arrays</t>
+  </si>
+  <si>
+    <t>servicio_ruta.codigo_producto</t>
   </si>
 </sst>
 </file>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -1045,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="51"/>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
@@ -1125,19 +1125,19 @@
     <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="E10" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1171,7 +1171,7 @@
       <c r="D12" s="42"/>
       <c r="E12" s="20"/>
       <c r="F12" s="42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1186,10 +1186,10 @@
         <v>17</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1251,19 +1251,19 @@
     <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
       <c r="B19" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>30</v>
-      </c>
       <c r="E19" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
